--- a/개발문서/영화관 - 테이블정의서.xlsx
+++ b/개발문서/영화관 - 테이블정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sist\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javawork\MultiplexTeamProject\개발문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9753294-D9D7-45E0-9A9F-3A5F83698E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8737142-2467-47FF-81A1-6271A3E8D7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1276,224 +1276,6 @@
         <charset val="129"/>
       </rPr>
       <t>참조</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관람</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  1 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관람</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    
-2 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">환불완료
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관람</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>불가</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1944,12 +1726,221 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관람</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불가</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+1 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관람</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    
+2 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관람</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불완료</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2020,6 +2011,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2385,66 +2384,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2462,6 +2401,66 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2684,8 +2683,8 @@
   </sheetPr>
   <dimension ref="A1:N1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="K366" sqref="K366"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2712,13 +2711,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2728,16 +2727,16 @@
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2745,14 +2744,14 @@
       <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
@@ -2760,8 +2759,8 @@
       <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="61"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -2775,83 +2774,83 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3064,13 +3063,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="60"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3080,16 +3079,16 @@
       <c r="G22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="61"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="51"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
@@ -3097,14 +3096,14 @@
       <c r="G23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="61"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="53"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="7" t="s">
         <v>8</v>
       </c>
@@ -3112,8 +3111,8 @@
       <c r="G24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="61"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -3127,85 +3126,85 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -3253,7 +3252,7 @@
         <v>57</v>
       </c>
       <c r="H32" s="25"/>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J32" s="26"/>
@@ -3322,13 +3321,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="5" t="s">
         <v>2</v>
       </c>
@@ -3338,16 +3337,16 @@
       <c r="G37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="68" t="s">
+      <c r="H37" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="61"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="7" t="s">
         <v>6</v>
       </c>
@@ -3355,14 +3354,14 @@
       <c r="G38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H38" s="68"/>
-      <c r="I38" s="61"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="53"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="7" t="s">
         <v>8</v>
       </c>
@@ -3370,8 +3369,8 @@
       <c r="G39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="61"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -3392,72 +3391,72 @@
       <c r="C41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="55"/>
+      <c r="E41" s="59"/>
       <c r="F41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G41" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="55"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="55"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="55"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="55"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -3588,13 +3587,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="60"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="5" t="s">
         <v>2</v>
       </c>
@@ -3604,16 +3603,16 @@
       <c r="G53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="68" t="s">
+      <c r="H53" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="61"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="7" t="s">
         <v>6</v>
       </c>
@@ -3621,14 +3620,14 @@
       <c r="G54" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="68"/>
-      <c r="I54" s="61"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="53"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
       <c r="E55" s="7" t="s">
         <v>8</v>
       </c>
@@ -3636,8 +3635,8 @@
       <c r="G55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="68"/>
-      <c r="I55" s="61"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
@@ -3651,83 +3650,83 @@
       <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="69" t="s">
+      <c r="D57" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="57"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="69" t="s">
+      <c r="G57" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="57"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="75"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="59"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="55"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="55"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="55"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="59"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4041,13 +4040,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="67" t="s">
+      <c r="B78" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D78" s="60"/>
+      <c r="D78" s="61"/>
       <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
@@ -4057,16 +4056,16 @@
       <c r="G78" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="68" t="s">
+      <c r="H78" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="61"/>
+      <c r="I78" s="67"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="51"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="7" t="s">
         <v>6</v>
       </c>
@@ -4074,14 +4073,14 @@
       <c r="G79" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="68"/>
-      <c r="I79" s="61"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="67"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="53"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
       <c r="E80" s="7" t="s">
         <v>8</v>
       </c>
@@ -4089,8 +4088,8 @@
       <c r="G80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="68"/>
-      <c r="I80" s="61"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="67"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -4104,85 +4103,85 @@
       <c r="I81" s="9"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="62" t="s">
+      <c r="D82" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="55"/>
+      <c r="E82" s="59"/>
       <c r="F82" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="62" t="s">
+      <c r="G82" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="H82" s="54"/>
-      <c r="I82" s="55"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="59"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
+      <c r="A83" s="69"/>
       <c r="B83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="59"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C84" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="55"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="59"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="63" t="s">
+      <c r="C85" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="55"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="59"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="55"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="59"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -4295,7 +4294,7 @@
         <v>123</v>
       </c>
       <c r="H91" s="25"/>
-      <c r="I91" s="71" t="s">
+      <c r="I91" s="51" t="s">
         <v>359</v>
       </c>
       <c r="J91" s="40"/>
@@ -4339,13 +4338,13 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="67" t="s">
+      <c r="B95" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D95" s="60"/>
+      <c r="D95" s="61"/>
       <c r="E95" s="5" t="s">
         <v>2</v>
       </c>
@@ -4355,16 +4354,16 @@
       <c r="G95" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H95" s="68" t="s">
+      <c r="H95" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I95" s="61"/>
+      <c r="I95" s="67"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="51"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="63"/>
       <c r="E96" s="7" t="s">
         <v>6</v>
       </c>
@@ -4372,14 +4371,14 @@
       <c r="G96" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H96" s="68"/>
-      <c r="I96" s="61"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="67"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="53"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="65"/>
       <c r="E97" s="7" t="s">
         <v>8</v>
       </c>
@@ -4387,8 +4386,8 @@
       <c r="G97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="68"/>
-      <c r="I97" s="61"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="67"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
@@ -4402,85 +4401,85 @@
       <c r="I98" s="9"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
+      <c r="A99" s="68"/>
       <c r="B99" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="62" t="s">
+      <c r="D99" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="E99" s="55"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G99" s="62" t="s">
+      <c r="G99" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="59"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="52"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="63" t="s">
+      <c r="C100" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="54"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="55"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="59"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C101" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="55"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="59"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C102" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="55"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="59"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="63" t="s">
+      <c r="C103" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -4528,7 +4527,7 @@
         <v>32</v>
       </c>
       <c r="H105" s="16"/>
-      <c r="I105" s="72" t="s">
+      <c r="I105" s="52" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4553,7 +4552,7 @@
         <v>123</v>
       </c>
       <c r="H106" s="25"/>
-      <c r="I106" s="71" t="s">
+      <c r="I106" s="51" t="s">
         <v>359</v>
       </c>
       <c r="J106" s="26"/>
@@ -4583,7 +4582,7 @@
         <v>123</v>
       </c>
       <c r="H107" s="25"/>
-      <c r="I107" s="71" t="s">
+      <c r="I107" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J107" s="26"/>
@@ -4694,13 +4693,13 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="67" t="s">
+      <c r="B114" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="65" t="s">
+      <c r="C114" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D114" s="60"/>
+      <c r="D114" s="61"/>
       <c r="E114" s="5" t="s">
         <v>2</v>
       </c>
@@ -4710,16 +4709,16 @@
       <c r="G114" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H114" s="68" t="s">
+      <c r="H114" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I114" s="61"/>
+      <c r="I114" s="67"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="51"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="63"/>
       <c r="E115" s="7" t="s">
         <v>6</v>
       </c>
@@ -4727,14 +4726,14 @@
       <c r="G115" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H115" s="68"/>
-      <c r="I115" s="61"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="67"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="59"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="53"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="65"/>
       <c r="E116" s="7" t="s">
         <v>8</v>
       </c>
@@ -4742,8 +4741,8 @@
       <c r="G116" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H116" s="68"/>
-      <c r="I116" s="61"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="67"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
@@ -4757,85 +4756,85 @@
       <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="66"/>
+      <c r="A118" s="68"/>
       <c r="B118" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="62" t="s">
+      <c r="D118" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="E118" s="55"/>
+      <c r="E118" s="59"/>
       <c r="F118" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G118" s="62" t="s">
+      <c r="G118" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="H118" s="54"/>
-      <c r="I118" s="55"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="59"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="63" t="s">
+      <c r="C119" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="55"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="58"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="59"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="63" t="s">
+      <c r="C120" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="55"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="59"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="63" t="s">
+      <c r="C121" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="55"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="59"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C122" s="63" t="s">
+      <c r="C122" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="55"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="59"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
@@ -4908,7 +4907,7 @@
         <v>123</v>
       </c>
       <c r="H125" s="25"/>
-      <c r="I125" s="71" t="s">
+      <c r="I125" s="51" t="s">
         <v>361</v>
       </c>
       <c r="J125" s="26"/>
@@ -4959,7 +4958,7 @@
         <v>123</v>
       </c>
       <c r="H127" s="25"/>
-      <c r="I127" s="71" t="s">
+      <c r="I127" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J127" s="26"/>
@@ -5053,13 +5052,13 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="67" t="s">
+      <c r="B133" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C133" s="65" t="s">
+      <c r="C133" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="D133" s="60"/>
+      <c r="D133" s="61"/>
       <c r="E133" s="5" t="s">
         <v>2</v>
       </c>
@@ -5069,16 +5068,16 @@
       <c r="G133" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H133" s="68" t="s">
+      <c r="H133" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I133" s="61"/>
+      <c r="I133" s="67"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="51"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="63"/>
       <c r="E134" s="7" t="s">
         <v>6</v>
       </c>
@@ -5086,14 +5085,14 @@
       <c r="G134" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H134" s="68"/>
-      <c r="I134" s="61"/>
+      <c r="H134" s="66"/>
+      <c r="I134" s="67"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="59"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="53"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="65"/>
       <c r="E135" s="7" t="s">
         <v>8</v>
       </c>
@@ -5101,8 +5100,8 @@
       <c r="G135" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H135" s="68"/>
-      <c r="I135" s="61"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="67"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
@@ -5116,55 +5115,55 @@
       <c r="I136" s="9"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
+      <c r="A137" s="68"/>
       <c r="B137" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="62" t="s">
+      <c r="D137" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="E137" s="55"/>
+      <c r="E137" s="59"/>
       <c r="F137" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G137" s="62" t="s">
+      <c r="G137" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H137" s="54"/>
-      <c r="I137" s="55"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="59"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
+      <c r="A138" s="69"/>
       <c r="B138" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C138" s="63" t="s">
+      <c r="C138" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D138" s="54"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="54"/>
-      <c r="I138" s="55"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="58"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="59"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C139" s="63" t="s">
+      <c r="C139" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="54"/>
-      <c r="G139" s="54"/>
-      <c r="H139" s="54"/>
-      <c r="I139" s="55"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="59"/>
       <c r="L139" s="26"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -5172,30 +5171,30 @@
       <c r="B140" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C140" s="64" t="s">
+      <c r="C140" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="54"/>
-      <c r="H140" s="54"/>
-      <c r="I140" s="55"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="59"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C141" s="63" t="s">
+      <c r="C141" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="D141" s="54"/>
-      <c r="E141" s="54"/>
-      <c r="F141" s="54"/>
-      <c r="G141" s="54"/>
-      <c r="H141" s="54"/>
-      <c r="I141" s="55"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="58"/>
+      <c r="I141" s="59"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
@@ -5266,7 +5265,7 @@
         <v>123</v>
       </c>
       <c r="H144" s="25"/>
-      <c r="I144" s="71" t="s">
+      <c r="I144" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J144" s="26"/>
@@ -5409,8 +5408,8 @@
         <v>123</v>
       </c>
       <c r="H150" s="24"/>
-      <c r="I150" s="71" t="s">
-        <v>363</v>
+      <c r="I150" s="51" t="s">
+        <v>362</v>
       </c>
       <c r="J150" s="26"/>
       <c r="K150" s="26"/>
@@ -5460,7 +5459,7 @@
       </c>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="1:14" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="66" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="37">
         <v>7</v>
@@ -5481,8 +5480,8 @@
       <c r="H153" s="24">
         <v>0</v>
       </c>
-      <c r="I153" s="73" t="s">
-        <v>362</v>
+      <c r="I153" s="53" t="s">
+        <v>370</v>
       </c>
       <c r="J153" s="18"/>
       <c r="K153" s="18"/>
@@ -5522,13 +5521,13 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" s="67" t="s">
+      <c r="B157" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="65" t="s">
+      <c r="C157" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="D157" s="60"/>
+      <c r="D157" s="61"/>
       <c r="E157" s="5" t="s">
         <v>2</v>
       </c>
@@ -5538,16 +5537,16 @@
       <c r="G157" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H157" s="68" t="s">
+      <c r="H157" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I157" s="61"/>
+      <c r="I157" s="67"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="51"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="62"/>
+      <c r="D158" s="63"/>
       <c r="E158" s="7" t="s">
         <v>6</v>
       </c>
@@ -5555,14 +5554,14 @@
       <c r="G158" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H158" s="68"/>
-      <c r="I158" s="61"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="67"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="B159" s="59"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="53"/>
+      <c r="B159" s="64"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="65"/>
       <c r="E159" s="7" t="s">
         <v>8</v>
       </c>
@@ -5570,8 +5569,8 @@
       <c r="G159" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H159" s="68"/>
-      <c r="I159" s="61"/>
+      <c r="H159" s="66"/>
+      <c r="I159" s="67"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
@@ -5585,85 +5584,85 @@
       <c r="I160" s="9"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="66"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="62" t="s">
+      <c r="D161" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="E161" s="55"/>
+      <c r="E161" s="59"/>
       <c r="F161" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G161" s="62" t="s">
+      <c r="G161" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="H161" s="54"/>
-      <c r="I161" s="55"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="59"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
+      <c r="A162" s="69"/>
       <c r="B162" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C162" s="63" t="s">
+      <c r="C162" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="D162" s="54"/>
-      <c r="E162" s="54"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="54"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="55"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="58"/>
+      <c r="G162" s="58"/>
+      <c r="H162" s="58"/>
+      <c r="I162" s="59"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C163" s="63" t="s">
+      <c r="C163" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D163" s="54"/>
-      <c r="E163" s="54"/>
-      <c r="F163" s="54"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="54"/>
-      <c r="I163" s="55"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
+      <c r="G163" s="58"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="59"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C164" s="64" t="s">
+      <c r="C164" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="54"/>
-      <c r="I164" s="55"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="58"/>
+      <c r="H164" s="58"/>
+      <c r="I164" s="59"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C165" s="63" t="s">
+      <c r="C165" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D165" s="54"/>
-      <c r="E165" s="54"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="54"/>
-      <c r="H165" s="54"/>
-      <c r="I165" s="55"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="58"/>
+      <c r="H165" s="58"/>
+      <c r="I165" s="59"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
@@ -5799,7 +5798,7 @@
         <v>123</v>
       </c>
       <c r="H171" s="25"/>
-      <c r="I171" s="71" t="s">
+      <c r="I171" s="51" t="s">
         <v>359</v>
       </c>
       <c r="J171" s="40"/>
@@ -5843,13 +5842,13 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="B175" s="67" t="s">
+      <c r="B175" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C175" s="65" t="s">
+      <c r="C175" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D175" s="60"/>
+      <c r="D175" s="61"/>
       <c r="E175" s="5" t="s">
         <v>2</v>
       </c>
@@ -5859,16 +5858,16 @@
       <c r="G175" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H175" s="68" t="s">
+      <c r="H175" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I175" s="61"/>
+      <c r="I175" s="67"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="51"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="62"/>
+      <c r="D176" s="63"/>
       <c r="E176" s="7" t="s">
         <v>6</v>
       </c>
@@ -5876,14 +5875,14 @@
       <c r="G176" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H176" s="68"/>
-      <c r="I176" s="61"/>
+      <c r="H176" s="66"/>
+      <c r="I176" s="67"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="B177" s="59"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="53"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="65"/>
       <c r="E177" s="7" t="s">
         <v>8</v>
       </c>
@@ -5891,8 +5890,8 @@
       <c r="G177" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H177" s="68"/>
-      <c r="I177" s="61"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="67"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
@@ -5906,85 +5905,85 @@
       <c r="I178" s="9"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="66"/>
+      <c r="A179" s="68"/>
       <c r="B179" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="62" t="s">
+      <c r="D179" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="E179" s="55"/>
+      <c r="E179" s="59"/>
       <c r="F179" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G179" s="62" t="s">
+      <c r="G179" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="H179" s="54"/>
-      <c r="I179" s="55"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="59"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="52"/>
+      <c r="A180" s="69"/>
       <c r="B180" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C180" s="63" t="s">
+      <c r="C180" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="54"/>
-      <c r="H180" s="54"/>
-      <c r="I180" s="55"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="58"/>
+      <c r="F180" s="58"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="59"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C181" s="63" t="s">
+      <c r="C181" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="54"/>
-      <c r="I181" s="55"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="59"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C182" s="64" t="s">
+      <c r="C182" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
-      <c r="I182" s="55"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="58"/>
+      <c r="F182" s="58"/>
+      <c r="G182" s="58"/>
+      <c r="H182" s="58"/>
+      <c r="I182" s="59"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C183" s="63" t="s">
+      <c r="C183" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="55"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="58"/>
+      <c r="H183" s="58"/>
+      <c r="I183" s="59"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
@@ -6032,8 +6031,8 @@
         <v>57</v>
       </c>
       <c r="H185" s="25"/>
-      <c r="I185" s="71" t="s">
-        <v>363</v>
+      <c r="I185" s="51" t="s">
+        <v>362</v>
       </c>
       <c r="J185" s="26"/>
       <c r="K185" s="26"/>
@@ -6085,8 +6084,8 @@
       <c r="H187" s="24">
         <v>0</v>
       </c>
-      <c r="I187" s="71" t="s">
-        <v>364</v>
+      <c r="I187" s="51" t="s">
+        <v>363</v>
       </c>
       <c r="J187" s="40"/>
       <c r="K187" s="40"/>
@@ -6129,13 +6128,13 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" s="67" t="s">
+      <c r="B191" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C191" s="65" t="s">
+      <c r="C191" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="D191" s="60"/>
+      <c r="D191" s="61"/>
       <c r="E191" s="5" t="s">
         <v>2</v>
       </c>
@@ -6145,16 +6144,16 @@
       <c r="G191" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H191" s="68" t="s">
+      <c r="H191" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I191" s="61"/>
+      <c r="I191" s="67"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="58"/>
-      <c r="C192" s="58"/>
-      <c r="D192" s="51"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="62"/>
+      <c r="D192" s="63"/>
       <c r="E192" s="7" t="s">
         <v>6</v>
       </c>
@@ -6162,14 +6161,14 @@
       <c r="G192" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H192" s="68"/>
-      <c r="I192" s="61"/>
+      <c r="H192" s="66"/>
+      <c r="I192" s="67"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="59"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="53"/>
+      <c r="B193" s="64"/>
+      <c r="C193" s="64"/>
+      <c r="D193" s="65"/>
       <c r="E193" s="7" t="s">
         <v>8</v>
       </c>
@@ -6177,8 +6176,8 @@
       <c r="G193" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H193" s="68"/>
-      <c r="I193" s="61"/>
+      <c r="H193" s="66"/>
+      <c r="I193" s="67"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
@@ -6192,85 +6191,85 @@
       <c r="I194" s="9"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="66"/>
+      <c r="A195" s="68"/>
       <c r="B195" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="62" t="s">
+      <c r="D195" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="E195" s="55"/>
+      <c r="E195" s="59"/>
       <c r="F195" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G195" s="62" t="s">
+      <c r="G195" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="H195" s="54"/>
-      <c r="I195" s="55"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="59"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="52"/>
+      <c r="A196" s="69"/>
       <c r="B196" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C196" s="63" t="s">
+      <c r="C196" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="54"/>
-      <c r="I196" s="55"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="59"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C197" s="63" t="s">
+      <c r="C197" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="54"/>
-      <c r="H197" s="54"/>
-      <c r="I197" s="55"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="59"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C198" s="70" t="s">
+      <c r="C198" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="D198" s="56"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="56"/>
-      <c r="H198" s="56"/>
-      <c r="I198" s="57"/>
+      <c r="D198" s="74"/>
+      <c r="E198" s="74"/>
+      <c r="F198" s="74"/>
+      <c r="G198" s="74"/>
+      <c r="H198" s="74"/>
+      <c r="I198" s="75"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C199" s="63" t="s">
+      <c r="C199" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="55"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="58"/>
+      <c r="G199" s="58"/>
+      <c r="H199" s="58"/>
+      <c r="I199" s="59"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
@@ -6343,8 +6342,8 @@
         <v>123</v>
       </c>
       <c r="H202" s="43"/>
-      <c r="I202" s="74" t="s">
-        <v>365</v>
+      <c r="I202" s="54" t="s">
+        <v>364</v>
       </c>
       <c r="J202" s="26"/>
       <c r="K202" s="26"/>
@@ -6373,7 +6372,7 @@
         <v>123</v>
       </c>
       <c r="H203" s="43"/>
-      <c r="I203" s="71" t="s">
+      <c r="I203" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J203" s="26"/>
@@ -6519,13 +6518,13 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
-      <c r="B211" s="67" t="s">
+      <c r="B211" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C211" s="65" t="s">
+      <c r="C211" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="D211" s="60"/>
+      <c r="D211" s="61"/>
       <c r="E211" s="5" t="s">
         <v>2</v>
       </c>
@@ -6535,17 +6534,17 @@
       <c r="G211" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H211" s="68" t="s">
+      <c r="H211" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I211" s="61"/>
+      <c r="I211" s="67"/>
       <c r="K211" s="26"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
-      <c r="B212" s="58"/>
-      <c r="C212" s="58"/>
-      <c r="D212" s="51"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="62"/>
+      <c r="D212" s="63"/>
       <c r="E212" s="7" t="s">
         <v>6</v>
       </c>
@@ -6553,15 +6552,15 @@
       <c r="G212" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H212" s="68"/>
-      <c r="I212" s="61"/>
+      <c r="H212" s="66"/>
+      <c r="I212" s="67"/>
       <c r="K212" s="26"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="B213" s="59"/>
-      <c r="C213" s="59"/>
-      <c r="D213" s="53"/>
+      <c r="B213" s="64"/>
+      <c r="C213" s="64"/>
+      <c r="D213" s="65"/>
       <c r="E213" s="7" t="s">
         <v>8</v>
       </c>
@@ -6569,8 +6568,8 @@
       <c r="G213" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="68"/>
-      <c r="I213" s="61"/>
+      <c r="H213" s="66"/>
+      <c r="I213" s="67"/>
       <c r="K213" s="26"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -6586,85 +6585,85 @@
       <c r="K214" s="26"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" s="66"/>
+      <c r="A215" s="68"/>
       <c r="B215" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="62" t="s">
+      <c r="D215" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="E215" s="55"/>
+      <c r="E215" s="59"/>
       <c r="F215" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G215" s="62" t="s">
+      <c r="G215" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="H215" s="54"/>
-      <c r="I215" s="55"/>
+      <c r="H215" s="58"/>
+      <c r="I215" s="59"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" s="52"/>
+      <c r="A216" s="69"/>
       <c r="B216" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C216" s="63" t="s">
+      <c r="C216" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="54"/>
-      <c r="I216" s="55"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="58"/>
+      <c r="F216" s="58"/>
+      <c r="G216" s="58"/>
+      <c r="H216" s="58"/>
+      <c r="I216" s="59"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C217" s="70" t="s">
+      <c r="C217" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D217" s="56"/>
-      <c r="E217" s="56"/>
-      <c r="F217" s="56"/>
-      <c r="G217" s="56"/>
-      <c r="H217" s="56"/>
-      <c r="I217" s="57"/>
+      <c r="D217" s="74"/>
+      <c r="E217" s="74"/>
+      <c r="F217" s="74"/>
+      <c r="G217" s="74"/>
+      <c r="H217" s="74"/>
+      <c r="I217" s="75"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C218" s="70" t="s">
+      <c r="C218" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="D218" s="56"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="56"/>
-      <c r="G218" s="56"/>
-      <c r="H218" s="56"/>
-      <c r="I218" s="57"/>
+      <c r="D218" s="74"/>
+      <c r="E218" s="74"/>
+      <c r="F218" s="74"/>
+      <c r="G218" s="74"/>
+      <c r="H218" s="74"/>
+      <c r="I218" s="75"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C219" s="70" t="s">
+      <c r="C219" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="D219" s="56"/>
-      <c r="E219" s="56"/>
-      <c r="F219" s="56"/>
-      <c r="G219" s="56"/>
-      <c r="H219" s="56"/>
-      <c r="I219" s="57"/>
+      <c r="D219" s="74"/>
+      <c r="E219" s="74"/>
+      <c r="F219" s="74"/>
+      <c r="G219" s="74"/>
+      <c r="H219" s="74"/>
+      <c r="I219" s="75"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
@@ -6737,8 +6736,8 @@
         <v>123</v>
       </c>
       <c r="H222" s="43"/>
-      <c r="I222" s="71" t="s">
-        <v>366</v>
+      <c r="I222" s="51" t="s">
+        <v>365</v>
       </c>
       <c r="J222" s="26"/>
       <c r="K222" s="26"/>
@@ -6767,7 +6766,7 @@
         <v>123</v>
       </c>
       <c r="H223" s="43"/>
-      <c r="I223" s="71" t="s">
+      <c r="I223" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J223" s="26"/>
@@ -6818,8 +6817,8 @@
       <c r="H225" s="33">
         <v>0</v>
       </c>
-      <c r="I225" s="75" t="s">
-        <v>367</v>
+      <c r="I225" s="55" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -6882,13 +6881,13 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="B230" s="67" t="s">
+      <c r="B230" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C230" s="65" t="s">
+      <c r="C230" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="D230" s="60"/>
+      <c r="D230" s="61"/>
       <c r="E230" s="5" t="s">
         <v>2</v>
       </c>
@@ -6898,16 +6897,16 @@
       <c r="G230" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H230" s="68" t="s">
+      <c r="H230" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I230" s="61"/>
+      <c r="I230" s="67"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="B231" s="58"/>
-      <c r="C231" s="58"/>
-      <c r="D231" s="51"/>
+      <c r="B231" s="62"/>
+      <c r="C231" s="62"/>
+      <c r="D231" s="63"/>
       <c r="E231" s="7" t="s">
         <v>6</v>
       </c>
@@ -6915,14 +6914,14 @@
       <c r="G231" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H231" s="68"/>
-      <c r="I231" s="61"/>
+      <c r="H231" s="66"/>
+      <c r="I231" s="67"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="B232" s="59"/>
-      <c r="C232" s="59"/>
-      <c r="D232" s="53"/>
+      <c r="B232" s="64"/>
+      <c r="C232" s="64"/>
+      <c r="D232" s="65"/>
       <c r="E232" s="7" t="s">
         <v>8</v>
       </c>
@@ -6930,8 +6929,8 @@
       <c r="G232" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H232" s="68"/>
-      <c r="I232" s="61"/>
+      <c r="H232" s="66"/>
+      <c r="I232" s="67"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
@@ -6945,85 +6944,85 @@
       <c r="I233" s="9"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="66"/>
+      <c r="A234" s="68"/>
       <c r="B234" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="62" t="s">
+      <c r="D234" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="E234" s="55"/>
+      <c r="E234" s="59"/>
       <c r="F234" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G234" s="62" t="s">
+      <c r="G234" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H234" s="54"/>
-      <c r="I234" s="55"/>
+      <c r="H234" s="58"/>
+      <c r="I234" s="59"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="52"/>
+      <c r="A235" s="69"/>
       <c r="B235" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C235" s="63" t="s">
+      <c r="C235" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="D235" s="54"/>
-      <c r="E235" s="54"/>
-      <c r="F235" s="54"/>
-      <c r="G235" s="54"/>
-      <c r="H235" s="54"/>
-      <c r="I235" s="55"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="58"/>
+      <c r="F235" s="58"/>
+      <c r="G235" s="58"/>
+      <c r="H235" s="58"/>
+      <c r="I235" s="59"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C236" s="63" t="s">
+      <c r="C236" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="D236" s="54"/>
-      <c r="E236" s="54"/>
-      <c r="F236" s="54"/>
-      <c r="G236" s="54"/>
-      <c r="H236" s="54"/>
-      <c r="I236" s="55"/>
+      <c r="D236" s="58"/>
+      <c r="E236" s="58"/>
+      <c r="F236" s="58"/>
+      <c r="G236" s="58"/>
+      <c r="H236" s="58"/>
+      <c r="I236" s="59"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C237" s="63" t="s">
+      <c r="C237" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="D237" s="54"/>
-      <c r="E237" s="54"/>
-      <c r="F237" s="54"/>
-      <c r="G237" s="54"/>
-      <c r="H237" s="54"/>
-      <c r="I237" s="55"/>
+      <c r="D237" s="58"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="58"/>
+      <c r="G237" s="58"/>
+      <c r="H237" s="58"/>
+      <c r="I237" s="59"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C238" s="63" t="s">
+      <c r="C238" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="D238" s="54"/>
-      <c r="E238" s="54"/>
-      <c r="F238" s="54"/>
-      <c r="G238" s="54"/>
-      <c r="H238" s="54"/>
-      <c r="I238" s="55"/>
+      <c r="D238" s="58"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="58"/>
+      <c r="G238" s="58"/>
+      <c r="H238" s="58"/>
+      <c r="I238" s="59"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
@@ -7096,8 +7095,8 @@
         <v>123</v>
       </c>
       <c r="H241" s="25"/>
-      <c r="I241" s="71" t="s">
-        <v>366</v>
+      <c r="I241" s="51" t="s">
+        <v>365</v>
       </c>
       <c r="J241" s="26"/>
       <c r="K241" s="26"/>
@@ -7126,7 +7125,7 @@
         <v>123</v>
       </c>
       <c r="H242" s="25"/>
-      <c r="I242" s="71" t="s">
+      <c r="I242" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J242" s="26"/>
@@ -7216,13 +7215,13 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="B248" s="67" t="s">
+      <c r="B248" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C248" s="65" t="s">
+      <c r="C248" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="D248" s="60"/>
+      <c r="D248" s="61"/>
       <c r="E248" s="5" t="s">
         <v>2</v>
       </c>
@@ -7232,16 +7231,16 @@
       <c r="G248" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H248" s="68" t="s">
+      <c r="H248" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I248" s="61"/>
+      <c r="I248" s="67"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="B249" s="58"/>
-      <c r="C249" s="58"/>
-      <c r="D249" s="51"/>
+      <c r="B249" s="62"/>
+      <c r="C249" s="62"/>
+      <c r="D249" s="63"/>
       <c r="E249" s="7" t="s">
         <v>6</v>
       </c>
@@ -7249,14 +7248,14 @@
       <c r="G249" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H249" s="68"/>
-      <c r="I249" s="61"/>
+      <c r="H249" s="66"/>
+      <c r="I249" s="67"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="B250" s="59"/>
-      <c r="C250" s="59"/>
-      <c r="D250" s="53"/>
+      <c r="B250" s="64"/>
+      <c r="C250" s="64"/>
+      <c r="D250" s="65"/>
       <c r="E250" s="7" t="s">
         <v>8</v>
       </c>
@@ -7264,8 +7263,8 @@
       <c r="G250" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H250" s="68"/>
-      <c r="I250" s="61"/>
+      <c r="H250" s="66"/>
+      <c r="I250" s="67"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
@@ -7279,85 +7278,85 @@
       <c r="I251" s="9"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252" s="66"/>
+      <c r="A252" s="68"/>
       <c r="B252" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="62" t="s">
+      <c r="D252" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="E252" s="55"/>
+      <c r="E252" s="59"/>
       <c r="F252" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G252" s="62" t="s">
+      <c r="G252" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="H252" s="54"/>
-      <c r="I252" s="55"/>
+      <c r="H252" s="58"/>
+      <c r="I252" s="59"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A253" s="52"/>
+      <c r="A253" s="69"/>
       <c r="B253" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C253" s="63" t="s">
+      <c r="C253" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="D253" s="54"/>
-      <c r="E253" s="54"/>
-      <c r="F253" s="54"/>
-      <c r="G253" s="54"/>
-      <c r="H253" s="54"/>
-      <c r="I253" s="55"/>
+      <c r="D253" s="58"/>
+      <c r="E253" s="58"/>
+      <c r="F253" s="58"/>
+      <c r="G253" s="58"/>
+      <c r="H253" s="58"/>
+      <c r="I253" s="59"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C254" s="63" t="s">
+      <c r="C254" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="D254" s="54"/>
-      <c r="E254" s="54"/>
-      <c r="F254" s="54"/>
-      <c r="G254" s="54"/>
-      <c r="H254" s="54"/>
-      <c r="I254" s="55"/>
+      <c r="D254" s="58"/>
+      <c r="E254" s="58"/>
+      <c r="F254" s="58"/>
+      <c r="G254" s="58"/>
+      <c r="H254" s="58"/>
+      <c r="I254" s="59"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C255" s="63" t="s">
+      <c r="C255" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="D255" s="54"/>
-      <c r="E255" s="54"/>
-      <c r="F255" s="54"/>
-      <c r="G255" s="54"/>
-      <c r="H255" s="54"/>
-      <c r="I255" s="55"/>
+      <c r="D255" s="58"/>
+      <c r="E255" s="58"/>
+      <c r="F255" s="58"/>
+      <c r="G255" s="58"/>
+      <c r="H255" s="58"/>
+      <c r="I255" s="59"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C256" s="63" t="s">
+      <c r="C256" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="D256" s="54"/>
-      <c r="E256" s="54"/>
-      <c r="F256" s="54"/>
-      <c r="G256" s="54"/>
-      <c r="H256" s="54"/>
-      <c r="I256" s="55"/>
+      <c r="D256" s="58"/>
+      <c r="E256" s="58"/>
+      <c r="F256" s="58"/>
+      <c r="G256" s="58"/>
+      <c r="H256" s="58"/>
+      <c r="I256" s="59"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
@@ -7430,7 +7429,7 @@
         <v>123</v>
       </c>
       <c r="H259" s="25"/>
-      <c r="I259" s="71" t="s">
+      <c r="I259" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J259" s="26"/>
@@ -7460,8 +7459,8 @@
         <v>123</v>
       </c>
       <c r="H260" s="25"/>
-      <c r="I260" s="71" t="s">
-        <v>368</v>
+      <c r="I260" s="51" t="s">
+        <v>367</v>
       </c>
       <c r="J260" s="26"/>
       <c r="K260" s="26"/>
@@ -7511,8 +7510,8 @@
       <c r="H262" s="33">
         <v>0</v>
       </c>
-      <c r="I262" s="75" t="s">
-        <v>367</v>
+      <c r="I262" s="55" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -7575,13 +7574,13 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="B267" s="67" t="s">
+      <c r="B267" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C267" s="65" t="s">
+      <c r="C267" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="D267" s="60"/>
+      <c r="D267" s="61"/>
       <c r="E267" s="5" t="s">
         <v>2</v>
       </c>
@@ -7591,16 +7590,16 @@
       <c r="G267" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H267" s="68" t="s">
+      <c r="H267" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I267" s="61"/>
+      <c r="I267" s="67"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="B268" s="58"/>
-      <c r="C268" s="58"/>
-      <c r="D268" s="51"/>
+      <c r="B268" s="62"/>
+      <c r="C268" s="62"/>
+      <c r="D268" s="63"/>
       <c r="E268" s="7" t="s">
         <v>6</v>
       </c>
@@ -7608,14 +7607,14 @@
       <c r="G268" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H268" s="68"/>
-      <c r="I268" s="61"/>
+      <c r="H268" s="66"/>
+      <c r="I268" s="67"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="B269" s="59"/>
-      <c r="C269" s="59"/>
-      <c r="D269" s="53"/>
+      <c r="B269" s="64"/>
+      <c r="C269" s="64"/>
+      <c r="D269" s="65"/>
       <c r="E269" s="7" t="s">
         <v>8</v>
       </c>
@@ -7623,8 +7622,8 @@
       <c r="G269" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H269" s="68"/>
-      <c r="I269" s="61"/>
+      <c r="H269" s="66"/>
+      <c r="I269" s="67"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
@@ -7638,83 +7637,83 @@
       <c r="I270" s="9"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A271" s="66"/>
+      <c r="A271" s="68"/>
       <c r="B271" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D271" s="62" t="s">
+      <c r="D271" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="E271" s="55"/>
+      <c r="E271" s="59"/>
       <c r="F271" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G271" s="62" t="s">
+      <c r="G271" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="H271" s="54"/>
-      <c r="I271" s="55"/>
+      <c r="H271" s="58"/>
+      <c r="I271" s="59"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A272" s="52"/>
+      <c r="A272" s="69"/>
       <c r="B272" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C272" s="63" t="s">
+      <c r="C272" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D272" s="54"/>
-      <c r="E272" s="54"/>
-      <c r="F272" s="54"/>
-      <c r="G272" s="54"/>
-      <c r="H272" s="54"/>
-      <c r="I272" s="55"/>
+      <c r="D272" s="58"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="58"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="58"/>
+      <c r="I272" s="59"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C273" s="63" t="s">
+      <c r="C273" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="D273" s="54"/>
-      <c r="E273" s="54"/>
-      <c r="F273" s="54"/>
-      <c r="G273" s="54"/>
-      <c r="H273" s="54"/>
-      <c r="I273" s="55"/>
+      <c r="D273" s="58"/>
+      <c r="E273" s="58"/>
+      <c r="F273" s="58"/>
+      <c r="G273" s="58"/>
+      <c r="H273" s="58"/>
+      <c r="I273" s="59"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C274" s="64"/>
-      <c r="D274" s="54"/>
-      <c r="E274" s="54"/>
-      <c r="F274" s="54"/>
-      <c r="G274" s="54"/>
-      <c r="H274" s="54"/>
-      <c r="I274" s="55"/>
+      <c r="C274" s="72"/>
+      <c r="D274" s="58"/>
+      <c r="E274" s="58"/>
+      <c r="F274" s="58"/>
+      <c r="G274" s="58"/>
+      <c r="H274" s="58"/>
+      <c r="I274" s="59"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C275" s="63" t="s">
+      <c r="C275" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="D275" s="54"/>
-      <c r="E275" s="54"/>
-      <c r="F275" s="54"/>
-      <c r="G275" s="54"/>
-      <c r="H275" s="54"/>
-      <c r="I275" s="55"/>
+      <c r="D275" s="58"/>
+      <c r="E275" s="58"/>
+      <c r="F275" s="58"/>
+      <c r="G275" s="58"/>
+      <c r="H275" s="58"/>
+      <c r="I275" s="59"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
@@ -7876,13 +7875,13 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="B284" s="67" t="s">
+      <c r="B284" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C284" s="65" t="s">
+      <c r="C284" s="60" t="s">
         <v>280</v>
       </c>
-      <c r="D284" s="60"/>
+      <c r="D284" s="61"/>
       <c r="E284" s="5" t="s">
         <v>2</v>
       </c>
@@ -7892,16 +7891,16 @@
       <c r="G284" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H284" s="68" t="s">
+      <c r="H284" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I284" s="61"/>
+      <c r="I284" s="67"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="B285" s="58"/>
-      <c r="C285" s="58"/>
-      <c r="D285" s="51"/>
+      <c r="B285" s="62"/>
+      <c r="C285" s="62"/>
+      <c r="D285" s="63"/>
       <c r="E285" s="7" t="s">
         <v>6</v>
       </c>
@@ -7909,14 +7908,14 @@
       <c r="G285" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H285" s="68"/>
-      <c r="I285" s="61"/>
+      <c r="H285" s="66"/>
+      <c r="I285" s="67"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="B286" s="59"/>
-      <c r="C286" s="59"/>
-      <c r="D286" s="53"/>
+      <c r="B286" s="64"/>
+      <c r="C286" s="64"/>
+      <c r="D286" s="65"/>
       <c r="E286" s="7" t="s">
         <v>8</v>
       </c>
@@ -7924,8 +7923,8 @@
       <c r="G286" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H286" s="68"/>
-      <c r="I286" s="61"/>
+      <c r="H286" s="66"/>
+      <c r="I286" s="67"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
@@ -7939,85 +7938,85 @@
       <c r="I287" s="9"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="66"/>
+      <c r="A288" s="68"/>
       <c r="B288" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="62" t="s">
+      <c r="D288" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="E288" s="55"/>
+      <c r="E288" s="59"/>
       <c r="F288" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G288" s="62" t="s">
+      <c r="G288" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="H288" s="54"/>
-      <c r="I288" s="55"/>
+      <c r="H288" s="58"/>
+      <c r="I288" s="59"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A289" s="52"/>
+      <c r="A289" s="69"/>
       <c r="B289" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C289" s="63" t="s">
+      <c r="C289" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="D289" s="54"/>
-      <c r="E289" s="54"/>
-      <c r="F289" s="54"/>
-      <c r="G289" s="54"/>
-      <c r="H289" s="54"/>
-      <c r="I289" s="55"/>
+      <c r="D289" s="58"/>
+      <c r="E289" s="58"/>
+      <c r="F289" s="58"/>
+      <c r="G289" s="58"/>
+      <c r="H289" s="58"/>
+      <c r="I289" s="59"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C290" s="63" t="s">
+      <c r="C290" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="D290" s="54"/>
-      <c r="E290" s="54"/>
-      <c r="F290" s="54"/>
-      <c r="G290" s="54"/>
-      <c r="H290" s="54"/>
-      <c r="I290" s="55"/>
+      <c r="D290" s="58"/>
+      <c r="E290" s="58"/>
+      <c r="F290" s="58"/>
+      <c r="G290" s="58"/>
+      <c r="H290" s="58"/>
+      <c r="I290" s="59"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C291" s="63" t="s">
+      <c r="C291" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="54"/>
-      <c r="G291" s="54"/>
-      <c r="H291" s="54"/>
-      <c r="I291" s="55"/>
+      <c r="D291" s="58"/>
+      <c r="E291" s="58"/>
+      <c r="F291" s="58"/>
+      <c r="G291" s="58"/>
+      <c r="H291" s="58"/>
+      <c r="I291" s="59"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C292" s="63" t="s">
+      <c r="C292" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="D292" s="54"/>
-      <c r="E292" s="54"/>
-      <c r="F292" s="54"/>
-      <c r="G292" s="54"/>
-      <c r="H292" s="54"/>
-      <c r="I292" s="55"/>
+      <c r="D292" s="58"/>
+      <c r="E292" s="58"/>
+      <c r="F292" s="58"/>
+      <c r="G292" s="58"/>
+      <c r="H292" s="58"/>
+      <c r="I292" s="59"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
@@ -8067,7 +8066,7 @@
         <v>123</v>
       </c>
       <c r="H294" s="16"/>
-      <c r="I294" s="76" t="s">
+      <c r="I294" s="56" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8092,8 +8091,8 @@
         <v>123</v>
       </c>
       <c r="H295" s="25"/>
-      <c r="I295" s="71" t="s">
-        <v>369</v>
+      <c r="I295" s="51" t="s">
+        <v>368</v>
       </c>
       <c r="J295" s="26"/>
       <c r="K295" s="26"/>
@@ -8145,8 +8144,8 @@
       <c r="H297" s="24">
         <v>0</v>
       </c>
-      <c r="I297" s="71" t="s">
-        <v>370</v>
+      <c r="I297" s="51" t="s">
+        <v>369</v>
       </c>
       <c r="J297" s="26"/>
       <c r="K297" s="26"/>
@@ -8262,13 +8261,13 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="B304" s="67" t="s">
+      <c r="B304" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C304" s="65" t="s">
+      <c r="C304" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="D304" s="60"/>
+      <c r="D304" s="61"/>
       <c r="E304" s="5" t="s">
         <v>2</v>
       </c>
@@ -8278,16 +8277,16 @@
       <c r="G304" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H304" s="68" t="s">
+      <c r="H304" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I304" s="61"/>
+      <c r="I304" s="67"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="B305" s="58"/>
-      <c r="C305" s="58"/>
-      <c r="D305" s="51"/>
+      <c r="B305" s="62"/>
+      <c r="C305" s="62"/>
+      <c r="D305" s="63"/>
       <c r="E305" s="7" t="s">
         <v>6</v>
       </c>
@@ -8295,14 +8294,14 @@
       <c r="G305" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H305" s="68"/>
-      <c r="I305" s="61"/>
+      <c r="H305" s="66"/>
+      <c r="I305" s="67"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="B306" s="59"/>
-      <c r="C306" s="59"/>
-      <c r="D306" s="53"/>
+      <c r="B306" s="64"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="65"/>
       <c r="E306" s="7" t="s">
         <v>8</v>
       </c>
@@ -8310,8 +8309,8 @@
       <c r="G306" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H306" s="68"/>
-      <c r="I306" s="61"/>
+      <c r="H306" s="66"/>
+      <c r="I306" s="67"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
@@ -8325,85 +8324,85 @@
       <c r="I307" s="9"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="66"/>
+      <c r="A308" s="68"/>
       <c r="B308" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D308" s="62" t="s">
+      <c r="D308" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="E308" s="55"/>
+      <c r="E308" s="59"/>
       <c r="F308" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G308" s="62" t="s">
+      <c r="G308" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="H308" s="54"/>
-      <c r="I308" s="55"/>
+      <c r="H308" s="58"/>
+      <c r="I308" s="59"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="52"/>
+      <c r="A309" s="69"/>
       <c r="B309" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C309" s="63" t="s">
+      <c r="C309" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="D309" s="54"/>
-      <c r="E309" s="54"/>
-      <c r="F309" s="54"/>
-      <c r="G309" s="54"/>
-      <c r="H309" s="54"/>
-      <c r="I309" s="55"/>
+      <c r="D309" s="58"/>
+      <c r="E309" s="58"/>
+      <c r="F309" s="58"/>
+      <c r="G309" s="58"/>
+      <c r="H309" s="58"/>
+      <c r="I309" s="59"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C310" s="63" t="s">
+      <c r="C310" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="D310" s="54"/>
-      <c r="E310" s="54"/>
-      <c r="F310" s="54"/>
-      <c r="G310" s="54"/>
-      <c r="H310" s="54"/>
-      <c r="I310" s="55"/>
+      <c r="D310" s="58"/>
+      <c r="E310" s="58"/>
+      <c r="F310" s="58"/>
+      <c r="G310" s="58"/>
+      <c r="H310" s="58"/>
+      <c r="I310" s="59"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C311" s="63" t="s">
+      <c r="C311" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="D311" s="54"/>
-      <c r="E311" s="54"/>
-      <c r="F311" s="54"/>
-      <c r="G311" s="54"/>
-      <c r="H311" s="54"/>
-      <c r="I311" s="55"/>
+      <c r="D311" s="58"/>
+      <c r="E311" s="58"/>
+      <c r="F311" s="58"/>
+      <c r="G311" s="58"/>
+      <c r="H311" s="58"/>
+      <c r="I311" s="59"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C312" s="63" t="s">
+      <c r="C312" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="D312" s="54"/>
-      <c r="E312" s="54"/>
-      <c r="F312" s="54"/>
-      <c r="G312" s="54"/>
-      <c r="H312" s="54"/>
-      <c r="I312" s="55"/>
+      <c r="D312" s="58"/>
+      <c r="E312" s="58"/>
+      <c r="F312" s="58"/>
+      <c r="G312" s="58"/>
+      <c r="H312" s="58"/>
+      <c r="I312" s="59"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
@@ -8516,8 +8515,8 @@
         <v>123</v>
       </c>
       <c r="H317" s="25"/>
-      <c r="I317" s="71" t="s">
-        <v>369</v>
+      <c r="I317" s="51" t="s">
+        <v>368</v>
       </c>
       <c r="J317" s="18"/>
       <c r="K317" s="18"/>
@@ -8557,13 +8556,13 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="B321" s="67" t="s">
+      <c r="B321" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C321" s="65" t="s">
+      <c r="C321" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="D321" s="60"/>
+      <c r="D321" s="61"/>
       <c r="E321" s="5" t="s">
         <v>2</v>
       </c>
@@ -8573,16 +8572,16 @@
       <c r="G321" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H321" s="68" t="s">
+      <c r="H321" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I321" s="61"/>
+      <c r="I321" s="67"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="B322" s="58"/>
-      <c r="C322" s="58"/>
-      <c r="D322" s="51"/>
+      <c r="B322" s="62"/>
+      <c r="C322" s="62"/>
+      <c r="D322" s="63"/>
       <c r="E322" s="7" t="s">
         <v>6</v>
       </c>
@@ -8590,14 +8589,14 @@
       <c r="G322" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H322" s="68"/>
-      <c r="I322" s="61"/>
+      <c r="H322" s="66"/>
+      <c r="I322" s="67"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="B323" s="59"/>
-      <c r="C323" s="59"/>
-      <c r="D323" s="53"/>
+      <c r="B323" s="64"/>
+      <c r="C323" s="64"/>
+      <c r="D323" s="65"/>
       <c r="E323" s="7" t="s">
         <v>8</v>
       </c>
@@ -8605,8 +8604,8 @@
       <c r="G323" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H323" s="68"/>
-      <c r="I323" s="61"/>
+      <c r="H323" s="66"/>
+      <c r="I323" s="67"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
@@ -8620,83 +8619,83 @@
       <c r="I324" s="9"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="66"/>
+      <c r="A325" s="68"/>
       <c r="B325" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D325" s="62" t="s">
+      <c r="D325" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="E325" s="55"/>
+      <c r="E325" s="59"/>
       <c r="F325" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G325" s="62" t="s">
+      <c r="G325" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="H325" s="54"/>
-      <c r="I325" s="55"/>
+      <c r="H325" s="58"/>
+      <c r="I325" s="59"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="52"/>
+      <c r="A326" s="69"/>
       <c r="B326" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C326" s="63" t="s">
+      <c r="C326" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="D326" s="54"/>
-      <c r="E326" s="54"/>
-      <c r="F326" s="54"/>
-      <c r="G326" s="54"/>
-      <c r="H326" s="54"/>
-      <c r="I326" s="55"/>
+      <c r="D326" s="58"/>
+      <c r="E326" s="58"/>
+      <c r="F326" s="58"/>
+      <c r="G326" s="58"/>
+      <c r="H326" s="58"/>
+      <c r="I326" s="59"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C327" s="63" t="s">
+      <c r="C327" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="D327" s="54"/>
-      <c r="E327" s="54"/>
-      <c r="F327" s="54"/>
-      <c r="G327" s="54"/>
-      <c r="H327" s="54"/>
-      <c r="I327" s="55"/>
+      <c r="D327" s="58"/>
+      <c r="E327" s="58"/>
+      <c r="F327" s="58"/>
+      <c r="G327" s="58"/>
+      <c r="H327" s="58"/>
+      <c r="I327" s="59"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C328" s="64"/>
-      <c r="D328" s="54"/>
-      <c r="E328" s="54"/>
-      <c r="F328" s="54"/>
-      <c r="G328" s="54"/>
-      <c r="H328" s="54"/>
-      <c r="I328" s="55"/>
+      <c r="C328" s="72"/>
+      <c r="D328" s="58"/>
+      <c r="E328" s="58"/>
+      <c r="F328" s="58"/>
+      <c r="G328" s="58"/>
+      <c r="H328" s="58"/>
+      <c r="I328" s="59"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C329" s="63" t="s">
+      <c r="C329" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="D329" s="54"/>
-      <c r="E329" s="54"/>
-      <c r="F329" s="54"/>
-      <c r="G329" s="54"/>
-      <c r="H329" s="54"/>
-      <c r="I329" s="55"/>
+      <c r="D329" s="58"/>
+      <c r="E329" s="58"/>
+      <c r="F329" s="58"/>
+      <c r="G329" s="58"/>
+      <c r="H329" s="58"/>
+      <c r="I329" s="59"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
@@ -8873,13 +8872,13 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="B339" s="67" t="s">
+      <c r="B339" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C339" s="65" t="s">
+      <c r="C339" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="D339" s="60"/>
+      <c r="D339" s="61"/>
       <c r="E339" s="5" t="s">
         <v>2</v>
       </c>
@@ -8889,16 +8888,16 @@
       <c r="G339" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H339" s="68" t="s">
+      <c r="H339" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I339" s="61"/>
+      <c r="I339" s="67"/>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="B340" s="58"/>
-      <c r="C340" s="58"/>
-      <c r="D340" s="51"/>
+      <c r="B340" s="62"/>
+      <c r="C340" s="62"/>
+      <c r="D340" s="63"/>
       <c r="E340" s="7" t="s">
         <v>6</v>
       </c>
@@ -8906,14 +8905,14 @@
       <c r="G340" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H340" s="68"/>
-      <c r="I340" s="61"/>
+      <c r="H340" s="66"/>
+      <c r="I340" s="67"/>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="B341" s="59"/>
-      <c r="C341" s="59"/>
-      <c r="D341" s="53"/>
+      <c r="B341" s="64"/>
+      <c r="C341" s="64"/>
+      <c r="D341" s="65"/>
       <c r="E341" s="7" t="s">
         <v>8</v>
       </c>
@@ -8921,8 +8920,8 @@
       <c r="G341" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H341" s="68"/>
-      <c r="I341" s="61"/>
+      <c r="H341" s="66"/>
+      <c r="I341" s="67"/>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
@@ -8936,83 +8935,83 @@
       <c r="I342" s="9"/>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A343" s="66"/>
+      <c r="A343" s="68"/>
       <c r="B343" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D343" s="62" t="s">
+      <c r="D343" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="E343" s="55"/>
+      <c r="E343" s="59"/>
       <c r="F343" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G343" s="62" t="s">
+      <c r="G343" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="H343" s="54"/>
-      <c r="I343" s="55"/>
+      <c r="H343" s="58"/>
+      <c r="I343" s="59"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A344" s="52"/>
+      <c r="A344" s="69"/>
       <c r="B344" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C344" s="63" t="s">
+      <c r="C344" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D344" s="54"/>
-      <c r="E344" s="54"/>
-      <c r="F344" s="54"/>
-      <c r="G344" s="54"/>
-      <c r="H344" s="54"/>
-      <c r="I344" s="55"/>
+      <c r="D344" s="58"/>
+      <c r="E344" s="58"/>
+      <c r="F344" s="58"/>
+      <c r="G344" s="58"/>
+      <c r="H344" s="58"/>
+      <c r="I344" s="59"/>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C345" s="63" t="s">
+      <c r="C345" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="D345" s="54"/>
-      <c r="E345" s="54"/>
-      <c r="F345" s="54"/>
-      <c r="G345" s="54"/>
-      <c r="H345" s="54"/>
-      <c r="I345" s="55"/>
+      <c r="D345" s="58"/>
+      <c r="E345" s="58"/>
+      <c r="F345" s="58"/>
+      <c r="G345" s="58"/>
+      <c r="H345" s="58"/>
+      <c r="I345" s="59"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C346" s="64"/>
-      <c r="D346" s="54"/>
-      <c r="E346" s="54"/>
-      <c r="F346" s="54"/>
-      <c r="G346" s="54"/>
-      <c r="H346" s="54"/>
-      <c r="I346" s="55"/>
+      <c r="C346" s="72"/>
+      <c r="D346" s="58"/>
+      <c r="E346" s="58"/>
+      <c r="F346" s="58"/>
+      <c r="G346" s="58"/>
+      <c r="H346" s="58"/>
+      <c r="I346" s="59"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C347" s="64" t="s">
+      <c r="C347" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="D347" s="54"/>
-      <c r="E347" s="54"/>
-      <c r="F347" s="54"/>
-      <c r="G347" s="54"/>
-      <c r="H347" s="54"/>
-      <c r="I347" s="55"/>
+      <c r="D347" s="58"/>
+      <c r="E347" s="58"/>
+      <c r="F347" s="58"/>
+      <c r="G347" s="58"/>
+      <c r="H347" s="58"/>
+      <c r="I347" s="59"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
@@ -9189,13 +9188,13 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="B357" s="65" t="s">
+      <c r="B357" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C357" s="65" t="s">
+      <c r="C357" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="D357" s="60"/>
+      <c r="D357" s="61"/>
       <c r="E357" s="5" t="s">
         <v>2</v>
       </c>
@@ -9205,16 +9204,16 @@
       <c r="G357" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H357" s="68" t="s">
+      <c r="H357" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I357" s="61"/>
+      <c r="I357" s="67"/>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="B358" s="58"/>
-      <c r="C358" s="58"/>
-      <c r="D358" s="51"/>
+      <c r="B358" s="62"/>
+      <c r="C358" s="62"/>
+      <c r="D358" s="63"/>
       <c r="E358" s="7" t="s">
         <v>6</v>
       </c>
@@ -9222,14 +9221,14 @@
       <c r="G358" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H358" s="68"/>
-      <c r="I358" s="61"/>
+      <c r="H358" s="66"/>
+      <c r="I358" s="67"/>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="B359" s="59"/>
-      <c r="C359" s="59"/>
-      <c r="D359" s="53"/>
+      <c r="B359" s="64"/>
+      <c r="C359" s="64"/>
+      <c r="D359" s="65"/>
       <c r="E359" s="7" t="s">
         <v>8</v>
       </c>
@@ -9237,8 +9236,8 @@
       <c r="G359" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H359" s="68"/>
-      <c r="I359" s="61"/>
+      <c r="H359" s="66"/>
+      <c r="I359" s="67"/>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
@@ -9252,85 +9251,85 @@
       <c r="I360" s="9"/>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A361" s="66"/>
+      <c r="A361" s="68"/>
       <c r="B361" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D361" s="62" t="s">
+      <c r="D361" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="E361" s="55"/>
+      <c r="E361" s="59"/>
       <c r="F361" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G361" s="62" t="s">
+      <c r="G361" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="H361" s="54"/>
-      <c r="I361" s="55"/>
+      <c r="H361" s="58"/>
+      <c r="I361" s="59"/>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A362" s="52"/>
+      <c r="A362" s="69"/>
       <c r="B362" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C362" s="63" t="s">
+      <c r="C362" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="D362" s="54"/>
-      <c r="E362" s="54"/>
-      <c r="F362" s="54"/>
-      <c r="G362" s="54"/>
-      <c r="H362" s="54"/>
-      <c r="I362" s="55"/>
+      <c r="D362" s="58"/>
+      <c r="E362" s="58"/>
+      <c r="F362" s="58"/>
+      <c r="G362" s="58"/>
+      <c r="H362" s="58"/>
+      <c r="I362" s="59"/>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C363" s="63" t="s">
+      <c r="C363" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="D363" s="54"/>
-      <c r="E363" s="54"/>
-      <c r="F363" s="54"/>
-      <c r="G363" s="54"/>
-      <c r="H363" s="54"/>
-      <c r="I363" s="55"/>
+      <c r="D363" s="58"/>
+      <c r="E363" s="58"/>
+      <c r="F363" s="58"/>
+      <c r="G363" s="58"/>
+      <c r="H363" s="58"/>
+      <c r="I363" s="59"/>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C364" s="64" t="s">
+      <c r="C364" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="D364" s="54"/>
-      <c r="E364" s="54"/>
-      <c r="F364" s="54"/>
-      <c r="G364" s="54"/>
-      <c r="H364" s="54"/>
-      <c r="I364" s="55"/>
+      <c r="D364" s="58"/>
+      <c r="E364" s="58"/>
+      <c r="F364" s="58"/>
+      <c r="G364" s="58"/>
+      <c r="H364" s="58"/>
+      <c r="I364" s="59"/>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C365" s="63" t="s">
+      <c r="C365" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="D365" s="54"/>
-      <c r="E365" s="54"/>
-      <c r="F365" s="54"/>
-      <c r="G365" s="54"/>
-      <c r="H365" s="54"/>
-      <c r="I365" s="55"/>
+      <c r="D365" s="58"/>
+      <c r="E365" s="58"/>
+      <c r="F365" s="58"/>
+      <c r="G365" s="58"/>
+      <c r="H365" s="58"/>
+      <c r="I365" s="59"/>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
@@ -9403,7 +9402,7 @@
         <v>123</v>
       </c>
       <c r="H368" s="25"/>
-      <c r="I368" s="71" t="s">
+      <c r="I368" s="51" t="s">
         <v>358</v>
       </c>
       <c r="J368" s="26"/>
@@ -16785,106 +16784,117 @@
     </row>
   </sheetData>
   <mergeCells count="239">
-    <mergeCell ref="C120:I120"/>
-    <mergeCell ref="C121:I121"/>
-    <mergeCell ref="C122:I122"/>
-    <mergeCell ref="C133:D135"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="C180:I180"/>
-    <mergeCell ref="C85:I85"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="C95:D97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:D116"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="C119:I119"/>
-    <mergeCell ref="C363:I363"/>
-    <mergeCell ref="C364:I364"/>
-    <mergeCell ref="C365:I365"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="C312:I312"/>
-    <mergeCell ref="C326:I326"/>
-    <mergeCell ref="C327:I327"/>
-    <mergeCell ref="C328:I328"/>
-    <mergeCell ref="C329:I329"/>
-    <mergeCell ref="C344:I344"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="H340:I340"/>
-    <mergeCell ref="H341:I341"/>
-    <mergeCell ref="G343:I343"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="H358:I358"/>
-    <mergeCell ref="H359:I359"/>
-    <mergeCell ref="G361:I361"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="G308:I308"/>
-    <mergeCell ref="H321:I321"/>
-    <mergeCell ref="H322:I322"/>
-    <mergeCell ref="H323:I323"/>
-    <mergeCell ref="G325:I325"/>
-    <mergeCell ref="C309:I309"/>
-    <mergeCell ref="C310:I310"/>
-    <mergeCell ref="C345:I345"/>
-    <mergeCell ref="C346:I346"/>
-    <mergeCell ref="C347:I347"/>
-    <mergeCell ref="H267:I267"/>
-    <mergeCell ref="H268:I268"/>
-    <mergeCell ref="H269:I269"/>
-    <mergeCell ref="G271:I271"/>
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="H285:I285"/>
-    <mergeCell ref="H286:I286"/>
-    <mergeCell ref="G288:I288"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="C275:I275"/>
-    <mergeCell ref="C289:I289"/>
-    <mergeCell ref="C290:I290"/>
-    <mergeCell ref="C291:I291"/>
-    <mergeCell ref="C292:I292"/>
-    <mergeCell ref="C272:I272"/>
-    <mergeCell ref="C273:I273"/>
-    <mergeCell ref="C274:I274"/>
-    <mergeCell ref="G215:I215"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="G234:I234"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="G252:I252"/>
-    <mergeCell ref="C216:I216"/>
-    <mergeCell ref="C217:I217"/>
-    <mergeCell ref="C218:I218"/>
-    <mergeCell ref="C219:I219"/>
-    <mergeCell ref="C235:I235"/>
-    <mergeCell ref="C236:I236"/>
-    <mergeCell ref="C237:I237"/>
-    <mergeCell ref="C238:I238"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="G195:I195"/>
-    <mergeCell ref="C196:I196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="C198:I198"/>
-    <mergeCell ref="C199:I199"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:D39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:D4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="C60:I60"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:D80"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="C138:I138"/>
+    <mergeCell ref="C139:I139"/>
+    <mergeCell ref="C140:I140"/>
+    <mergeCell ref="C141:I141"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="C102:I102"/>
+    <mergeCell ref="C103:I103"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C84:I84"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="C191:D193"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="C211:D213"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="G161:I161"/>
+    <mergeCell ref="C162:I162"/>
+    <mergeCell ref="C163:I163"/>
+    <mergeCell ref="C164:I164"/>
+    <mergeCell ref="C165:I165"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:D159"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="D308:E308"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="C230:D232"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="C248:D250"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="C267:D269"/>
+    <mergeCell ref="C253:I253"/>
+    <mergeCell ref="C254:I254"/>
+    <mergeCell ref="C255:I255"/>
+    <mergeCell ref="C256:I256"/>
     <mergeCell ref="C181:I181"/>
     <mergeCell ref="C182:I182"/>
     <mergeCell ref="C183:I183"/>
@@ -16909,121 +16919,110 @@
     <mergeCell ref="D288:E288"/>
     <mergeCell ref="B304:B306"/>
     <mergeCell ref="C304:D306"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="D308:E308"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="C230:D232"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="C248:D250"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="C267:D269"/>
-    <mergeCell ref="C253:I253"/>
-    <mergeCell ref="C254:I254"/>
-    <mergeCell ref="C255:I255"/>
-    <mergeCell ref="C256:I256"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="G195:I195"/>
+    <mergeCell ref="C196:I196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="C198:I198"/>
+    <mergeCell ref="C199:I199"/>
+    <mergeCell ref="G215:I215"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="G234:I234"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="G252:I252"/>
+    <mergeCell ref="C216:I216"/>
+    <mergeCell ref="C217:I217"/>
+    <mergeCell ref="C218:I218"/>
+    <mergeCell ref="C219:I219"/>
+    <mergeCell ref="C235:I235"/>
+    <mergeCell ref="C236:I236"/>
+    <mergeCell ref="C237:I237"/>
+    <mergeCell ref="C238:I238"/>
+    <mergeCell ref="H267:I267"/>
+    <mergeCell ref="H268:I268"/>
+    <mergeCell ref="H269:I269"/>
+    <mergeCell ref="G271:I271"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="H285:I285"/>
+    <mergeCell ref="H286:I286"/>
+    <mergeCell ref="G288:I288"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="C275:I275"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C290:I290"/>
+    <mergeCell ref="C291:I291"/>
+    <mergeCell ref="C292:I292"/>
+    <mergeCell ref="C272:I272"/>
+    <mergeCell ref="C273:I273"/>
+    <mergeCell ref="C274:I274"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="G308:I308"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="H323:I323"/>
+    <mergeCell ref="G325:I325"/>
+    <mergeCell ref="C309:I309"/>
+    <mergeCell ref="C310:I310"/>
+    <mergeCell ref="C363:I363"/>
+    <mergeCell ref="C364:I364"/>
+    <mergeCell ref="C365:I365"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="C312:I312"/>
+    <mergeCell ref="C326:I326"/>
+    <mergeCell ref="C327:I327"/>
+    <mergeCell ref="C328:I328"/>
+    <mergeCell ref="C329:I329"/>
+    <mergeCell ref="C344:I344"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="H340:I340"/>
+    <mergeCell ref="H341:I341"/>
+    <mergeCell ref="G343:I343"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="H358:I358"/>
+    <mergeCell ref="H359:I359"/>
+    <mergeCell ref="G361:I361"/>
+    <mergeCell ref="C345:I345"/>
+    <mergeCell ref="C346:I346"/>
+    <mergeCell ref="C347:I347"/>
+    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="C95:D97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:D116"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="C121:I121"/>
+    <mergeCell ref="C122:I122"/>
+    <mergeCell ref="C133:D135"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="C180:I180"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
     <mergeCell ref="B175:B177"/>
     <mergeCell ref="C175:D177"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="C191:D193"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="C211:D213"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:I161"/>
-    <mergeCell ref="C162:I162"/>
-    <mergeCell ref="C163:I163"/>
-    <mergeCell ref="C164:I164"/>
-    <mergeCell ref="C165:I165"/>
     <mergeCell ref="B133:B135"/>
     <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:D159"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="C138:I138"/>
-    <mergeCell ref="C139:I139"/>
-    <mergeCell ref="C140:I140"/>
-    <mergeCell ref="C141:I141"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="C100:I100"/>
-    <mergeCell ref="C101:I101"/>
-    <mergeCell ref="C102:I102"/>
-    <mergeCell ref="C103:I103"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="C60:I60"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:D80"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:D55"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:D4"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:D39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="G41:I41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
